--- a/biology/Botanique/Grands_parcs_de_Montréal/Grands_parcs_de_Montréal.xlsx
+++ b/biology/Botanique/Grands_parcs_de_Montréal/Grands_parcs_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grands_parcs_de_Montr%C3%A9al</t>
+          <t>Grands_parcs_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Réseau des grands parcs de Montréal est constitué d'espaces naturels précieux pour leur biodiversité et leur beauté. On retrouve dans certains parcs des maisons anciennes acquises par la Ville.
-Le réseau est administré par le Service des grands parcs, du verdissement et du Mont-Royal[1].
+Le réseau est administré par le Service des grands parcs, du verdissement et du Mont-Royal.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grands_parcs_de_Montr%C3%A9al</t>
+          <t>Grands_parcs_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des grands parcs urbains[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parc René-Lévesque
 Parc Angrignon
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grands_parcs_de_Montr%C3%A9al</t>
+          <t>Grands_parcs_de_Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,17 +573,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Parcs-nature aménagés
-Parc-nature de l'Anse-à-l'Orme
+          <t>Parcs-nature aménagés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parc-nature de l'Anse-à-l'Orme
 Parc-nature du Cap Saint-Jacques
 Parc-nature du Bois-de-l’Île-Bizard
 Parc-nature du Bois-de-Liesse
 Parc-nature du Bois-des-Saraguay
 Parc-nature de l'Île-de-la-Visitation
 Parc-nature du Ruisseau-De Montigny
-Parc-nature de la Pointe-aux-Prairies
-Parcs-nature non-aménagés
-Parc-nature du Bois-d'Anjou
+Parc-nature de la Pointe-aux-Prairies</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grands_parcs_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grands_parcs_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des parcs-nature</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Parcs-nature non-aménagés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parc-nature du Bois-d'Anjou
 Parc-nature des Rapides-du-Cheval-Blanc
 Parc agricole du Bois-de-la-Roche</t>
         </is>
